--- a/biology/Médecine/Liste_des_cancérogènes_du_groupe_4_du_CIRC/Liste_des_cancérogènes_du_groupe_4_du_CIRC.xlsx
+++ b/biology/Médecine/Liste_des_cancérogènes_du_groupe_4_du_CIRC/Liste_des_cancérogènes_du_groupe_4_du_CIRC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_4_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_4_du_CIRC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cancérogènes du groupe 4 du CIRC référence les agents classés comme probablement pas cancérogènes pour l’Homme par le Centre international de recherche sur le cancer (CIRC).
 Le classement d’un « agent » dans cette catégorie est préconisé lorsqu’il existe des preuves suggérant une absence de cancérogénicité pour l'Homme.
-Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru[1].
+Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_4_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_4_du_CIRC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Classification par le CIRC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories :
 Catégorie 1: cancérogène certains pour l'homme.
 Catégorie 2A : cancérogène probable pour l'homme.
 Catégorie 2B : cancérogène possible pour l'homme.
 Catégorie 3 : inclassable quant à sa cancérogénicité pour l'homme.
-Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019[3].</t>
+Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_4_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_4_du_CIRC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Agents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2021, cette liste ne comprend aucune substance. Seul le caprolactame y a été classé par le CIRC jusqu'en 2019, date à laquelle il a été reclassé dans le groupe 3[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2021, cette liste ne comprend aucune substance. Seul le caprolactame y a été classé par le CIRC jusqu'en 2019, date à laquelle il a été reclassé dans le groupe 3.
 </t>
         </is>
       </c>
